--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-24T12:30:17+00:00</t>
+    <t>2025-03-25T12:34:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil av Bundle for Legemiddelregisteret. Støtter bare batch-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>
+    <t>Profil av Bundle for Legemiddelregisteret. Støtter bare transaction-type og POST-operasjoner, med begrensninger på tillatte ressurstyper.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -404,16 +404,16 @@
     <t>Bundle.type</t>
   </si>
   <si>
-    <t>Må være av type batch</t>
-  </si>
-  <si>
-    <t>Angir at bundle må være av type batch</t>
+    <t>Må være av type transaction</t>
+  </si>
+  <si>
+    <t>Angir at bundle må være av type transaction</t>
   </si>
   <si>
     <t>It's possible to use a bundle for other purposes (e.g. a document can be accepted as a transaction). This is primarily defined so that there can be specific rules for some of the bundle types.</t>
   </si>
   <si>
-    <t>batch</t>
+    <t>transaction</t>
   </si>
   <si>
     <t>required</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:34:21+00:00</t>
+    <t>2025-03-25T12:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:47:29+00:00</t>
+    <t>2025-03-25T12:47:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.1</t>
+    <t>1.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-25T12:47:44+00:00</t>
+    <t>2025-03-31T14:08:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.2</t>
+    <t>1.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-31T14:08:18+00:00</t>
+    <t>2025-04-11T07:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.3</t>
+    <t>1.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T07:26:01+00:00</t>
+    <t>2025-08-29T09:13:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -738,10 +738,10 @@
     <t>Bundle.entry.request.url</t>
   </si>
   <si>
-    <t>URL for HTTP equivalent of this entry</t>
-  </si>
-  <si>
-    <t>The URL for this entry, relative to the root (the address to which the request is posted).</t>
+    <t>URL for requesten (påkrevd, men verdien har ingen betydning)</t>
+  </si>
+  <si>
+    <t>Representerer addressen for requesten. URL er påkrevd av FHIR-spesifikasjonen for transaction bundles, men selve verdien har ingen funksjonell betydning i dette tilfellet.</t>
   </si>
   <si>
     <t>E.g. for a Patient Create, the method would be "POST" and the URL would be "Patient". For a Patient Update, the method would be PUT and the URL would be "Patient/[id]".</t>
@@ -1210,17 +1210,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="39.0078125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="21.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.44140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="18.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="17.66015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.140625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1229,26 +1229,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="168.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="49.01171875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="34.98046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="144.1953125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="42.01953125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="29.98828125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.1328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="21.4140625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="36.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.4</t>
+    <t>1.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T09:13:21+00:00</t>
+    <t>2025-09-12T12:54:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -373,7 +373,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T12:54:49+00:00</t>
+    <t>2025-09-12T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:01:34+00:00</t>
+    <t>2025-09-12T13:06:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-12T13:06:36+00:00</t>
+    <t>2025-09-13T17:40:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.6</t>
+    <t>1.0.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-13T17:40:53+00:00</t>
+    <t>2025-10-07T11:54:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>115</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>122</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>131</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>175</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
         <v>189</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>211</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>218</v>
       </c>
@@ -6815,12 +6815,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AN49">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-07T11:54:58+00:00</t>
+    <t>2025-10-12T08:57:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T08:57:38+00:00</t>
+    <t>2025-10-12T09:19:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-12T09:19:49+00:00</t>
+    <t>2025-10-17T18:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:23:46+00:00</t>
+    <t>2025-10-17T18:45:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:45:29+00:00</t>
+    <t>2025-10-17T18:58:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T18:58:39+00:00</t>
+    <t>2025-10-18T06:27:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:27:30+00:00</t>
+    <t>2025-10-18T06:37:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:37:01+00:00</t>
+    <t>2025-10-18T06:49:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-18T06:49:50+00:00</t>
+    <t>2025-11-06T09:39:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:39:43+00:00</t>
+    <t>2025-11-06T09:59:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-06T09:59:39+00:00</t>
+    <t>2025-11-24T09:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:13:45+00:00</t>
+    <t>2025-11-25T12:27:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-lmdi-bundle.xlsx
+++ b/StructureDefinition-lmdi-bundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T12:27:52+00:00</t>
+    <t>2026-02-05T09:35:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
